--- a/Test Plan/Test Plan - Real World App.xlsx
+++ b/Test Plan/Test Plan - Real World App.xlsx
@@ -7,7 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="NewUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Transfer Money" sheetId="3" r:id="rId3"/>
+    <sheet name="History Transaction" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +21,465 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="128">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Feature / Módulo</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Log in successfully, being able to access the user dashboard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>1 - Log in with an existing credentials; email address and password:
+"username": "Heath93",       "password": "s3cret"
+2 - Click the button to submit
+3 - Validate the successful by identifying the log in page</t>
+  </si>
+  <si>
+    <t>Login Success</t>
+  </si>
+  <si>
+    <t>Successfuly logged in using existing user data from database of Real World App</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Login Unsuccessful</t>
+  </si>
+  <si>
+    <t>RWA001.2</t>
+  </si>
+  <si>
+    <t>RWA001.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>     </t>
+  </si>
+  <si>
+    <t>Verify an alert message when trying to log in with non existent credentials on database. User should not be able to log in using wrong/non existing credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Log in with an existing credentials; email address and password:
+"username": "Romeu",  "password": "s3cret"
+2 - Click the button to submit
+3 - Validate the unsuccessful log in by identifying the wrong credential alert (message) </t>
+  </si>
+  <si>
+    <t>Try to log in using non-existing credentials. Use a wrong username and see if the system shows some alert message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal is to log into the system using existing credentials (example app users) from the 'database-seed' file, which are already stored in the database. </t>
+  </si>
+  <si>
+    <t>add evidence</t>
+  </si>
+  <si>
+    <t>Confirmed that with no existing user details on database (back-end), is not possible to log in. Alert message appears</t>
+  </si>
+  <si>
+    <t>    Final results: New User created with all the fields required; Logged in to prove user is on database.</t>
+  </si>
+  <si>
+    <t>    Test case - Create New User Unsuccessfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Expected results: Register a new user with incomplete data. Make sure that the system shows the error message when you try to create a new user with incomplete credentials and mandatory information. </t>
+  </si>
+  <si>
+    <t>        1 - Understand what are the creteria for a Successful User Registration</t>
+  </si>
+  <si>
+    <t>    Creteria for a Successful New User:</t>
+  </si>
+  <si>
+    <t>        Mandatory First Name</t>
+  </si>
+  <si>
+    <t>        Mandatory Last Name</t>
+  </si>
+  <si>
+    <t>        Mandatory Username</t>
+  </si>
+  <si>
+    <t>        Mandatory Password with at least 4 characters and it can be the same characters</t>
+  </si>
+  <si>
+    <t>        Mandatory Password match with the Password written in the field “Confirm Password”</t>
+  </si>
+  <si>
+    <t>        There is no limit of characters for the Password</t>
+  </si>
+  <si>
+    <t>        Name, Last Name and Username can have only 1 character</t>
+  </si>
+  <si>
+    <t>        Name, Last Name and Username can be numbers</t>
+  </si>
+  <si>
+    <t>        Any kind of character is accepted in all the fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>            2 - Click on “Don’t have an account yet, sign up”</t>
+  </si>
+  <si>
+    <t>            3 - Try to create a User with 3 characters as a Password</t>
+  </si>
+  <si>
+    <t>            4 - Try to create with no Username field</t>
+  </si>
+  <si>
+    <t>    Evidences:</t>
+  </si>
+  <si>
+    <t>        Alert messages for incomplete registration:</t>
+  </si>
+  <si>
+    <t>        First Name is required</t>
+  </si>
+  <si>
+    <t>        Last Name is required</t>
+  </si>
+  <si>
+    <t>        Username is required</t>
+  </si>
+  <si>
+    <t>        Password must contain at least 4 characters</t>
+  </si>
+  <si>
+    <t>        Password does not match</t>
+  </si>
+  <si>
+    <t>        When mandatory creteria is not followed, Sign Up button do not light up - we can not finalize the registration. And the alert messages show up in red color.</t>
+  </si>
+  <si>
+    <t>        Expected results: Verify is it is possible to transfer money to a friend while having enough balance at your account.</t>
+  </si>
+  <si>
+    <t>        Test1:</t>
+  </si>
+  <si>
+    <t>            2 - Access Home Page</t>
+  </si>
+  <si>
+    <t>            3 - Click on button 'NEW'</t>
+  </si>
+  <si>
+    <t>            7 - Click on 'Pay' button</t>
+  </si>
+  <si>
+    <t>        Test2 - Manual test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>            1 - Login with existent account - Logged in with username Arvilla_Hegmann sending money to friend Ted</t>
+  </si>
+  <si>
+    <t>            4 - Select a friend account 'Ted'</t>
+  </si>
+  <si>
+    <t>            5 - Type ‘$100’ in the ‘Amount’ field - Tried transaction of $100 - balance was $100,00</t>
+  </si>
+  <si>
+    <t>            6 - Add a note 'Payment to Ted'</t>
+  </si>
+  <si>
+    <t>            8 - It needs to show a message 'Transaction Submitted'</t>
+  </si>
+  <si>
+    <t>            1 - Login with existent account - Logged in with username Heath93</t>
+  </si>
+  <si>
+    <t>            2 - Click on NEW button</t>
+  </si>
+  <si>
+    <t>            3 - Select a friend</t>
+  </si>
+  <si>
+    <t>            4 - Add a higher amount than what you have on the balance - Tried transaction of $40.000,00 while the balance was $33.400,00</t>
+  </si>
+  <si>
+    <t>            5 - The transaction shouldn’t complete, since you do not have enough money</t>
+  </si>
+  <si>
+    <t>            6 - Check what errors appear</t>
+  </si>
+  <si>
+    <t>            7 - Document    </t>
+  </si>
+  <si>
+    <t>        Final results: BUG FOUND - Instead of receiving an alert message saying I do not have enough money for the transaction, it shows: ‘Transaction Submitted’</t>
+  </si>
+  <si>
+    <t>        Possible solution: Do not allow the user to transfer more money than they have. When trying to transfer more than the available balance, a message should appear: “Not enough balance” or “Add money to your account to complete the transaction.”</t>
+  </si>
+  <si>
+    <t>Tests: View Transaction History</t>
+  </si>
+  <si>
+    <t>        Expected results: Try to see a transaction history in a user which has no transactions done. Check if the system shows some error or message advising there’s no history.</t>
+  </si>
+  <si>
+    <t>RWA002.1</t>
+  </si>
+  <si>
+    <t>New User Successfull</t>
+  </si>
+  <si>
+    <t>Verify that it is possible to register a new user, filling up all the information correctly.</t>
+  </si>
+  <si>
+    <t>1 - Click on “Don’t have an account yet, sign up”
+2 - Fill up First Name, example: ‘Joana’
+3 - Fill up Last Name, example: ‘Santos'
+4 - Fill up Username, example: ‘Joana Santos’
+5 - Create password field, example: ‘testando’
+6 - Confirm password field, example: ‘testando’
+7 - Click Sign Up
+8 - Confirming that new user was created
+9 - Log in with new user credentials
+10 - Confirm it was logged in, by identifying Home page</t>
+  </si>
+  <si>
+    <t>RWA002.2</t>
+  </si>
+  <si>
+    <t>Create New User Unsuccessfully</t>
+  </si>
+  <si>
+    <t>User's credentials (username, passaword) have already been created and are on the database (back-end);
+The app is installed, the system is operating after following the steps of Real World App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The app is installed, the system is operating after following the steps of Real World App.</t>
+  </si>
+  <si>
+    <t>The app is installed, the system is operating after following the steps of Real World App.</t>
+  </si>
+  <si>
+    <t>User's credentials (username, passaword) have already been created and are on the database (back-end);
+The app is installed, the system is operatinga after following the steps of Real World App.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must show the error message when you try to create a new user with incomplete credentials and mandatory information. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test consists in registering a new user with incomplete data. The creteria will not be followed, so we test if the system blocks the action, avoiding it to be completed.
+</t>
+  </si>
+  <si>
+    <t>1 - Click on “Don’t have an account yet, sign up”
+2 - Try to create a User with 3 characters as a Password
+3 - Try to create with no Username filled
+4 - Try to create with no First Name filled
+5 - Try to create with no Last Name filled
+6 - Try to create with Password less than 4 characters
+7 - Try to create with not matching password</t>
+  </si>
+  <si>
+    <t>When mandatory creteria is not followed, Sign Up button do not light up - we can not finalize the registration. And the alert messages show up in red color.
+Alert messages for incomplete registration:
+-Username is required
+-First Name is required
+-Last Name is required
+-Password must contain at least 4 characters
+-Password does not match</t>
+  </si>
+  <si>
+    <t>Following the creteria, it is possible to create a New User and access with its credential</t>
+  </si>
+  <si>
+    <t>Test if it is possible to register a new user following the creteria of the application and loggin in with its credential.
+Creteria for a Successful New User:
+Mandatory First Name
+Mandatory Last Name
+Mandatory Username
+Mandatory Password with at least 4 characters and it can be the same characters
+Mandatory Password match with the Password written in the field “Confirm Password”
+There is no limit of characters for the Password
+Name, Last Name and Username can have only 1 character
+Name, Last Name and Username can be numbers
+Any kind of character is accepted in all the fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Test: </t>
+  </si>
+  <si>
+    <t>Transferring money - Successfuly</t>
+  </si>
+  <si>
+    <t>RWA003.1</t>
+  </si>
+  <si>
+    <t>           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Login with existent account - Logged in with username Heath93 sending money to friend Kristian
+2 - Access Home Page
+3 - Click on button 'NEW'
+4 - Select a friend account 'Kristian Bradtke'
+5 - Type ‘$100’ in the 'Amount' field - Tried transaction of $100 - balance was $100,00
+6 - Add a note 'Payment to Kristian'
+7 - Click on 'Pay' button
+8 - It needs to show a message “Transaction Submitted” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Final results: </t>
+  </si>
+  <si>
+    <t>While having enough money on the account, the transfer occurs with no errors. All the transactions showed the successful message 'Transaction Submitted'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test consists in sending money to a friend, while having enough balance at your account. </t>
+  </si>
+  <si>
+    <t>The app is installed, the system is operating after following the steps of Real World App.
+There is money in the balance.
+There is friends registered in the history to transfer money to them.</t>
+  </si>
+  <si>
+    <t>It is possible to log in into an existing account and send money to another already registered account while having enough balance.</t>
+  </si>
+  <si>
+    <t>Considering High Severity since transfering money is one of the main goals of the application</t>
+  </si>
+  <si>
+    <t>RWA003.2</t>
+  </si>
+  <si>
+    <t>Transferring money - Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test consists in trying to send money to a friend, while not having enough balance at the account. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Login with existent account - Logged in with username Heath93
+2 - Click on NEW button
+3 - Select a friend
+4 - Add a higher amount than what you have on the balance - Tried transaction of $40.000,00 while the balance was $33.400,00
+5 - The transaction shouldn’t complete, since you do not have enough money
+6 - Check what errors appear
+        </t>
+  </si>
+  <si>
+    <t>BUG FOUND - Instead of receiving an alert message saying I do not have enough money for the transaction, it shows: ‘Transaction Submitted’</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Possible solution: Do not allow the user to transfer more money than they have. When trying to transfer more than the available balance, a message should appear: “Not enough balance” or “Add money to your account to complete the transaction.</t>
+  </si>
+  <si>
+    <t>User should not be able to send money with no balance in his account. An alert message should pop up informing there is no money and the operation should be blocked from there.</t>
+  </si>
+  <si>
+    <t>View transaction history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View transaction of user with a transaction history. Checking if it is possible to view transaction history of a user, showing the recent transactions done. </t>
+  </si>
+  <si>
+    <t>       </t>
+  </si>
+  <si>
+    <t>1 - Login with registered credentials -  User: Heath93 / P: s3cret
+2 - Confirm you are in the Main Page
+3 - Click “Mine” to see my transactions
+ 4 - Click on the last transaction done
+5 - Check if the last amount transfered is there “100”
+6 - Check if there is the name of the friend with which you did the last transaction</t>
+  </si>
+  <si>
+    <t>I didn't find a way to assure that the transaction found is the right one.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Test2: </t>
+  </si>
+  <si>
+    <t>RWA004.1</t>
+  </si>
+  <si>
+    <t>RWA004.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View transaction of user with no transaction history. Check if the application shows a transaction history of a user which has no transactions done. </t>
+  </si>
+  <si>
+    <t>Expect a message saying that user has no previous transactions.</t>
+  </si>
+  <si>
+    <t>The app is installed, the system is operating after following the steps of Real World App.
+There is money in the balance.
+There is friends registered in the history to transfer money to them.
+To make sure I would find a user with no transactions' history, I created a new user, logged in, checked the transaction page and made sure the sign "No Transactions" was shown. I was tested if a "Transaction List would appear", but it didn't, so test was successfull.</t>
+  </si>
+  <si>
+    <t>1 - Login with user that has no transaction history:
+2 - Created a new user: Joao Carlos / username: 'joaocarlos'; password: 'test1'
+3 - Access 'mine' to check my transactions
+4 - Make sure the message 'No transaction' appear</t>
+  </si>
+  <si>
+    <t>The app asks for a Bank Account. We can create it using general name and routing number. After that, we can access the page 'Mine' to show my transaction, and prove that the sentence 'No Transactions' appears.</t>
+  </si>
+  <si>
+    <t>After logging in with na existent account, being able to check user transaction history</t>
+  </si>
+  <si>
+    <t>One can see the transactions done at the transaction history page</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +487,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +541,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +676,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +711,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +893,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J68"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H6" activeCellId="1" sqref="H3 H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="219.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="59" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>